--- a/Weather/bin/newFile.xlsx
+++ b/Weather/bin/newFile.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Time Stamp</t>
   </si>
@@ -87,6 +87,33 @@
   </si>
   <si>
     <t>2017.05.21 15.51.35</t>
+  </si>
+  <si>
+    <t>2017.05.29 03.41.21</t>
+  </si>
+  <si>
+    <t>2017-05-29T09:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-29T12:00:00</t>
+  </si>
+  <si>
+    <t>2017.05.29 03.41.47</t>
+  </si>
+  <si>
+    <t>2017.05.29 03.42.21</t>
+  </si>
+  <si>
+    <t>2017.05.29 03.42.39</t>
+  </si>
+  <si>
+    <t>2017.05.29 03.43.42</t>
+  </si>
+  <si>
+    <t>2017.05.29 03.52.32</t>
+  </si>
+  <si>
+    <t>2017.05.29 03.58.20</t>
   </si>
 </sst>
 </file>
@@ -402,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -644,6 +671,281 @@
         <v>2.359999895095825</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15.539999961853027</v>
+      </c>
+      <c r="C7" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.079999923706055</v>
+      </c>
+      <c r="I7" t="n">
+        <v>995.1799926757812</v>
+      </c>
+      <c r="J7" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.539999961853027</v>
+      </c>
+      <c r="C8" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.079999923706055</v>
+      </c>
+      <c r="I8" t="n">
+        <v>995.1799926757812</v>
+      </c>
+      <c r="J8" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15.539999961853027</v>
+      </c>
+      <c r="C9" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.079999923706055</v>
+      </c>
+      <c r="I9" t="n">
+        <v>995.1799926757812</v>
+      </c>
+      <c r="J9" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15.539999961853027</v>
+      </c>
+      <c r="C10" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.079999923706055</v>
+      </c>
+      <c r="I10" t="n">
+        <v>995.1799926757812</v>
+      </c>
+      <c r="J10" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15.539999961853027</v>
+      </c>
+      <c r="C11" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.079999923706055</v>
+      </c>
+      <c r="I11" t="n">
+        <v>995.1799926757812</v>
+      </c>
+      <c r="J11" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15.539999961853027</v>
+      </c>
+      <c r="C12" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14.079999923706055</v>
+      </c>
+      <c r="I12" t="n">
+        <v>995.1799926757812</v>
+      </c>
+      <c r="J12" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15.539999961853027</v>
+      </c>
+      <c r="C13" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="n">
+        <v>14.079999923706055</v>
+      </c>
+      <c r="I13" t="n">
+        <v>995.1799926757812</v>
+      </c>
+      <c r="J13" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Weather/bin/newFile.xlsx
+++ b/Weather/bin/newFile.xlsx
@@ -6,15 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Weather" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Weather" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="105">
   <si>
     <t>Time Stamp</t>
   </si>
@@ -71,6 +70,264 @@
   </si>
   <si>
     <t>2017.05.29 14.19.44</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.41.44</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.29</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.32</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.33</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.35</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.36</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.37</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.39</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.40</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.41</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.43</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.44</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.45</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.46</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.48</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.49</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.51</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.52</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.53</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.55</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.56</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.57</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.43.59</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.00</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.02</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.03</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.04</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.11</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.17</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.22</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.28</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.33</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.35</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.38</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.43</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.44</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.48</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.49</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.54</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.55</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.44.59</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.00</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.05</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.06</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.10</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.11</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.16</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.21</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.22</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.26</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.27</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.33</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.38</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.44</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.49</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.45.54</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.46.00</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.46.05</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.46.10</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.46.13</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.46.16</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.46.21</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.46.26</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.46.32</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.46.37</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.46.42</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.47.16</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.48.16</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.52.06</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.52.19</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.52.29</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.52.40</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.52.51</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.53.02</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.53.12</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.53.23</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.53.33</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.53.44</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.53.54</t>
+  </si>
+  <si>
+    <t>2017.05.29 15.54.04</t>
+  </si>
+  <si>
+    <t>2017.05.29 16.10.05</t>
+  </si>
+  <si>
+    <t>2017.05.29 16.16.32</t>
+  </si>
+  <si>
+    <t>2017.05.29 16.17.06</t>
+  </si>
+  <si>
+    <t>2017.05.29 16.17.17</t>
+  </si>
+  <si>
+    <t>2017.05.29 16.17.27</t>
   </si>
 </sst>
 </file>
@@ -384,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:P13"/>
@@ -392,21 +649,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" collapsed="1" customWidth="1" max="1" min="1" width="17.6640625"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="2" min="2" width="18.83203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="3" min="3" width="11.6640625"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="4" min="4" width="12.83203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="5" min="5" width="16"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="6" min="6" width="21.33203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="7" min="7" width="19.1640625"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="8" min="8" width="28.33203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="9" min="9" width="22.83203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="10" min="10" width="20.5"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="20.83203125"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="25.33203125"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" width="15.1640625"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" width="24.33203125"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" width="15.1640625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -619,6 +876,4377 @@
         <v>620.2</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C15" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I15" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J15" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C16" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I16" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J16" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C17" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I17" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J17" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C18" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I18" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J18" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C19" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I19" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J19" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C20" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I20" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J20" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C21" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I21" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J21" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C22" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I22" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J22" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C23" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I23" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J23" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C24" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I24" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J24" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C25" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I25" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J25" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C26" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I26" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J26" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C27" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I27" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J27" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C28" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I28" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J28" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C29" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I29" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J29" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C30" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I30" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J30" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C31" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I31" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J31" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C32" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I32" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J32" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C33" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I33" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J33" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C34" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I34" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J34" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C35" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I35" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J35" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C36" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I36" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J36" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C37" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I37" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J37" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C38" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I38" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J38" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C39" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I39" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J39" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C40" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I40" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J40" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C41" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I41" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J41" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C42" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I42" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J42" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C43" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I43" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J43" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C44" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I44" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J44" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M44" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C45" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I45" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J45" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C46" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I46" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J46" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C47" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I47" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J47" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C48" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I48" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J48" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C49" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I49" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J49" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C50" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I50" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J50" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C51" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I51" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J51" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C52" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I52" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J52" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C53" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I53" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J53" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M53" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C54" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I54" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J54" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C55" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I55" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J55" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M55" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C56" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I56" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J56" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M56" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C57" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I57" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J57" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M57" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C58" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I58" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J58" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C59" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I59" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J59" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M59" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C60" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I60" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J60" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M60" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C61" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I61" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J61" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C62" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I62" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J62" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C63" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I63" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J63" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M63" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C64" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I64" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J64" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M64" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I65" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J65" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M65" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I66" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J66" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C67" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I67" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J67" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M67" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C68" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I68" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J68" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M68" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C69" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I69" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J69" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M69" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C70" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I70" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J70" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M70" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C71" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I71" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J71" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M71" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C72" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I72" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J72" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M72" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C73" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I73" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J73" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M73" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C74" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I74" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J74" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M74" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C75" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I75" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J75" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M75" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C76" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I76" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J76" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M76" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C77" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I77" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M77" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C78" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I78" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J78" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M78" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C79" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I79" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J79" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M79" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C80" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I80" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J80" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M80" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C81" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I81" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J81" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M81" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C82" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I82" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J82" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M82" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" t="s">
+        <v>20</v>
+      </c>
+      <c r="O82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C83" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I83" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J83" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M83" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" t="s">
+        <v>20</v>
+      </c>
+      <c r="O83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C84" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I84" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J84" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M84" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84" t="s">
+        <v>20</v>
+      </c>
+      <c r="O84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C85" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I85" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J85" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M85" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85" t="s">
+        <v>20</v>
+      </c>
+      <c r="O85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C86" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I86" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J86" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M86" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" t="s">
+        <v>20</v>
+      </c>
+      <c r="O86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C87" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I87" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J87" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M87" t="s">
+        <v>20</v>
+      </c>
+      <c r="N87" t="s">
+        <v>20</v>
+      </c>
+      <c r="O87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C88" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I88" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J88" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M88" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88" t="s">
+        <v>20</v>
+      </c>
+      <c r="O88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C89" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I89" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J89" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M89" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89" t="s">
+        <v>20</v>
+      </c>
+      <c r="O89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C90" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I90" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J90" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>20</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M90" t="s">
+        <v>20</v>
+      </c>
+      <c r="N90" t="s">
+        <v>20</v>
+      </c>
+      <c r="O90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C91" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I91" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J91" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>20</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M91" t="s">
+        <v>20</v>
+      </c>
+      <c r="N91" t="s">
+        <v>20</v>
+      </c>
+      <c r="O91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C92" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I92" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J92" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M92" t="s">
+        <v>20</v>
+      </c>
+      <c r="N92" t="s">
+        <v>20</v>
+      </c>
+      <c r="O92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C93" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I93" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J93" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M93" t="s">
+        <v>20</v>
+      </c>
+      <c r="N93" t="s">
+        <v>20</v>
+      </c>
+      <c r="O93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C94" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I94" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J94" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M94" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" t="s">
+        <v>20</v>
+      </c>
+      <c r="O94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C95" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I95" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J95" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M95" t="s">
+        <v>20</v>
+      </c>
+      <c r="N95" t="s">
+        <v>20</v>
+      </c>
+      <c r="O95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C96" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I96" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J96" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M96" t="s">
+        <v>20</v>
+      </c>
+      <c r="N96" t="s">
+        <v>20</v>
+      </c>
+      <c r="O96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C97" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I97" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J97" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M97" t="s">
+        <v>20</v>
+      </c>
+      <c r="N97" t="s">
+        <v>20</v>
+      </c>
+      <c r="O97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C98" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I98" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J98" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>20</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M98" t="s">
+        <v>20</v>
+      </c>
+      <c r="N98" t="s">
+        <v>20</v>
+      </c>
+      <c r="O98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C99" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I99" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J99" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M99" t="s">
+        <v>20</v>
+      </c>
+      <c r="N99" t="s">
+        <v>20</v>
+      </c>
+      <c r="O99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C100" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I100" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J100" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M100" t="s">
+        <v>20</v>
+      </c>
+      <c r="N100" t="s">
+        <v>20</v>
+      </c>
+      <c r="O100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C101" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I101" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J101" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M101" t="s">
+        <v>20</v>
+      </c>
+      <c r="N101" t="s">
+        <v>20</v>
+      </c>
+      <c r="O101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C102" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I102" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J102" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M102" t="s">
+        <v>20</v>
+      </c>
+      <c r="N102" t="s">
+        <v>20</v>
+      </c>
+      <c r="O102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C103" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I103" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J103" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M103" t="s">
+        <v>20</v>
+      </c>
+      <c r="N103" t="s">
+        <v>20</v>
+      </c>
+      <c r="O103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C104" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I104" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J104" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M104" t="s">
+        <v>20</v>
+      </c>
+      <c r="N104" t="s">
+        <v>20</v>
+      </c>
+      <c r="O104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C105" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F105" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I105" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J105" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M105" t="s">
+        <v>20</v>
+      </c>
+      <c r="N105" t="s">
+        <v>20</v>
+      </c>
+      <c r="O105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C106" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I106" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J106" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M106" t="s">
+        <v>20</v>
+      </c>
+      <c r="N106" t="s">
+        <v>20</v>
+      </c>
+      <c r="O106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" t="n">
+        <v>22.579999923706055</v>
+      </c>
+      <c r="C107" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="n">
+        <v>21.6200008392334</v>
+      </c>
+      <c r="I107" t="n">
+        <v>994.1900024414062</v>
+      </c>
+      <c r="J107" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1.7100000381469727</v>
+      </c>
+      <c r="M107" t="s">
+        <v>20</v>
+      </c>
+      <c r="N107" t="s">
+        <v>20</v>
+      </c>
+      <c r="O107" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Weather/bin/newFile.xlsx
+++ b/Weather/bin/newFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Time Stamp</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>2017.05.30 02.41.39</t>
+  </si>
+  <si>
+    <t>2017.05.30 02.59.50</t>
+  </si>
+  <si>
+    <t>2017.05.30 03.00.27</t>
+  </si>
+  <si>
+    <t>2017.05.30 03.00.48</t>
   </si>
 </sst>
 </file>
@@ -396,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="A1:P146"/>
@@ -820,6 +829,138 @@
         <v>83.90000000000001</v>
       </c>
     </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15.14999961853027</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15.07999992370605</v>
+      </c>
+      <c r="I19" t="n">
+        <v>994.3699951171875</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.610000014305115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15.14999961853027</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15.07999992370605</v>
+      </c>
+      <c r="I20" t="n">
+        <v>994.3699951171875</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.610000014305115</v>
+      </c>
+      <c r="M20" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="O20" t="n">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>15.14999961853027</v>
+      </c>
+      <c r="C21" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15.07999992370605</v>
+      </c>
+      <c r="I21" t="n">
+        <v>994.3699951171875</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.610000014305115</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O21" t="n">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Weather/bin/newFile.xlsx
+++ b/Weather/bin/newFile.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balaji/Documents/Github/IOT/Weather/src/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="15460" windowWidth="25600" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Current Weather" r:id="rId1" sheetId="1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Weather" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Time Stamp</t>
   </si>
@@ -86,9 +73,6 @@
     <t>2017-06-02T06:00:00</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2017.06.01 20.23.17</t>
   </si>
   <si>
@@ -105,43 +89,55 @@
   </si>
   <si>
     <t>2017.06.01 20.23.26</t>
+  </si>
+  <si>
+    <t>2017.06.01 20.44.35</t>
+  </si>
+  <si>
+    <t>2017.06.01 20.44.37</t>
+  </si>
+  <si>
+    <t>2017.06.01 20.44.38</t>
+  </si>
+  <si>
+    <t>2017.06.01 20.44.39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000;[Red]0.0000"/>
+    <numFmt formatCode="0.0000;[Red]0.0000" numFmtId="164"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="12"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -162,21 +158,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -185,10 +175,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -223,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -258,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -352,21 +342,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -383,7 +373,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -435,42 +425,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" topLeftCell="F97" workbookViewId="0">
-      <selection activeCell="O114" sqref="A1:XFD1048576"/>
+    <sheetView showRuler="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="17.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="19.1640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="28.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="22.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="25.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="24.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
-    <col min="16" max="20" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
-    <col min="21" max="16384" style="1" width="10.83203125" collapsed="true"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="1" min="1" style="1" width="17.6640625"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="2" min="2" style="1" width="18.83203125"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="3" min="3" style="1" width="11.6640625"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="4" min="4" style="1" width="12.83203125"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="5" min="5" style="1" width="16"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="6" min="6" style="1" width="21.33203125"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="7" min="7" style="1" width="19.1640625"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="8" min="8" style="1" width="28.33203125"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="9" min="9" style="1" width="22.83203125"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="10" min="10" style="1" width="20.5"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="11" min="11" style="1" width="20.83203125"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="12" min="12" style="1" width="25.33203125"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="13" min="13" style="1" width="15.1640625"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="14" min="14" style="1" width="24.33203125"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="15" min="15" style="1" width="15.1640625"/>
+    <col collapsed="1" customWidth="1" max="20" min="16" style="1" width="10.83203125"/>
+    <col collapsed="1" customWidth="1" max="16384" min="21" style="1" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,21 +514,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>19.229999542236328</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="C2" t="n">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="E2" t="n">
-        <v>2.5999999046325684</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -549,39 +543,42 @@
         <v>994.260009765625</v>
       </c>
       <c r="J2" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>1.159999966621399</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>800</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" t="n">
-        <v>19.229999542236328</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="C3" t="n">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="E3" t="n">
-        <v>2.5999999046325684</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -596,39 +593,42 @@
         <v>994.260009765625</v>
       </c>
       <c r="J3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>1.159999966621399</v>
       </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>890</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>19.229999542236328</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="C4" t="n">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="E4" t="n">
-        <v>2.5999999046325684</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -643,39 +643,42 @@
         <v>994.260009765625</v>
       </c>
       <c r="J4" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>1.159999966621399</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>800</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>19.229999542236328</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="C5" t="n">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="E5" t="n">
-        <v>2.5999999046325684</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -690,39 +693,42 @@
         <v>994.260009765625</v>
       </c>
       <c r="J5" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>1.159999966621399</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>890</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>19.229999542236328</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="C6" t="n">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="E6" t="n">
-        <v>2.5999999046325684</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -737,39 +743,42 @@
         <v>994.260009765625</v>
       </c>
       <c r="J6" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>1.159999966621399</v>
       </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>800</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="n">
-        <v>19.229999542236328</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="C7" t="n">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="E7" t="n">
-        <v>2.5999999046325684</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -784,39 +793,42 @@
         <v>994.260009765625</v>
       </c>
       <c r="J7" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>1.159999966621399</v>
       </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>890</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
-        <v>19.229999542236328</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="C8" t="n">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D8" t="n">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="E8" t="n">
-        <v>2.5999999046325684</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -831,22 +843,225 @@
         <v>994.260009765625</v>
       </c>
       <c r="J8" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>1.159999966621399</v>
       </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>19</v>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>800</v>
+      </c>
+      <c r="P8" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19.22999954223633</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.599999904632568</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="I9" t="n">
+        <v>994.260009765625</v>
+      </c>
+      <c r="J9" t="n">
+        <v>97</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>890</v>
+      </c>
+      <c r="P9" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.22999954223633</v>
+      </c>
+      <c r="C10" t="n">
+        <v>72</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.599999904632568</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="I10" t="n">
+        <v>994.260009765625</v>
+      </c>
+      <c r="J10" t="n">
+        <v>97</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>800</v>
+      </c>
+      <c r="P10" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.22999954223633</v>
+      </c>
+      <c r="C11" t="n">
+        <v>72</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.599999904632568</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="I11" t="n">
+        <v>994.260009765625</v>
+      </c>
+      <c r="J11" t="n">
+        <v>97</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>890</v>
+      </c>
+      <c r="P11" t="n">
+        <v>847.4545454545456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19.22999954223633</v>
+      </c>
+      <c r="C12" t="n">
+        <v>72</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.599999904632568</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="I12" t="n">
+        <v>994.260009765625</v>
+      </c>
+      <c r="J12" t="n">
+        <v>97</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>800</v>
+      </c>
+      <c r="P12" t="n">
+        <v>839.2727272727274</v>
       </c>
     </row>
   </sheetData>

--- a/Weather/bin/newFile.xlsx
+++ b/Weather/bin/newFile.xlsx
@@ -6,15 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Weather" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Weather" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55" count="6">
   <si>
     <t>Time Stamp</t>
   </si>
@@ -101,6 +100,84 @@
   </si>
   <si>
     <t>2017.06.01 20.44.39</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.37</t>
+  </si>
+  <si>
+    <t>2017-06-04T00:00:00</t>
+  </si>
+  <si>
+    <t>2017-06-04T03:00:00</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.39</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.40</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.42</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.43</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.44</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.46</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.47</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.48</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.49</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.00.51</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.03.31</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.03.52</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.04.13</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.04.33</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.25.28</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.26.48</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.27.49</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.28.50</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.32.42</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.33.43</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.34.44</t>
+  </si>
+  <si>
+    <t>2017.06.03 19.35.44</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -108,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="0.0000;[Red]0.0000" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="0.0000;[Red]0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -175,10 +252,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -213,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -248,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -342,21 +419,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -373,7 +450,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -425,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,31 +514,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showRuler="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" collapsed="1" customWidth="1" max="1" min="1" style="1" width="17.6640625"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="2" min="2" style="1" width="18.83203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="3" min="3" style="1" width="11.6640625"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="4" min="4" style="1" width="12.83203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="5" min="5" style="1" width="16"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="6" min="6" style="1" width="21.33203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="7" min="7" style="1" width="19.1640625"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="8" min="8" style="1" width="28.33203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="9" min="9" style="1" width="22.83203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="10" min="10" style="1" width="20.5"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="11" min="11" style="1" width="20.83203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="12" min="12" style="1" width="25.33203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="13" min="13" style="1" width="15.1640625"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="14" min="14" style="1" width="24.33203125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="15" min="15" style="1" width="15.1640625"/>
-    <col collapsed="1" customWidth="1" max="20" min="16" style="1" width="10.83203125"/>
-    <col collapsed="1" customWidth="1" max="16384" min="21" style="1" width="10.83203125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="17.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="19.1640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="28.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="22.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="25.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="24.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
+    <col min="16" max="22" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
+    <col min="23" max="16384" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1052,16 +1129,1157 @@
         <v>1.159999966621399</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>46.32</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="O12" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>789.279090909091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C13" t="n">
+        <v>82</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I13" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J13" t="n">
+        <v>76</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>800</v>
       </c>
-      <c r="P12" t="n">
-        <v>839.2727272727274</v>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>82</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I14" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J14" t="n">
+        <v>76</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>829</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I15" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J15" t="n">
+        <v>76</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>810</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C16" t="n">
+        <v>82</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I16" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J16" t="n">
+        <v>76</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>800</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C17" t="n">
+        <v>82</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I17" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J17" t="n">
+        <v>76</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>790</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C18" t="n">
+        <v>82</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I18" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J18" t="n">
+        <v>76</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>780</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C19" t="n">
+        <v>82</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I19" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J19" t="n">
+        <v>76</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>770</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C20" t="n">
+        <v>82</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I20" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J20" t="n">
+        <v>76</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>760</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C21" t="n">
+        <v>82</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I21" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J21" t="n">
+        <v>76</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>750</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C22" t="n">
+        <v>82</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I22" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J22" t="n">
+        <v>76</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>740</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C23" t="n">
+        <v>82</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I23" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J23" t="n">
+        <v>76</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>730</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C24" t="n">
+        <v>82</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I24" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J24" t="n">
+        <v>76</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>720</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C25" t="n">
+        <v>82</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I25" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J25" t="n">
+        <v>76</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M25" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O25" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C26" t="n">
+        <v>82</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I26" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J26" t="n">
+        <v>76</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>700</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C27" t="n">
+        <v>82</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="I27" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J27" t="n">
+        <v>76</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>690</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="n">
+        <v>21.01000022888184</v>
+      </c>
+      <c r="C28" t="n">
+        <v>82</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="I28" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J28" t="n">
+        <v>76</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>680</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>21.01000022888184</v>
+      </c>
+      <c r="C29" t="n">
+        <v>82</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="I29" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J29" t="n">
+        <v>76</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M29" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="O29" t="n">
+        <v>660</v>
+      </c>
+      <c r="P29" t="n">
+        <v>415.7765141700405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="n">
+        <v>21.01000022888184</v>
+      </c>
+      <c r="C30" t="n">
+        <v>82</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="I30" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J30" t="n">
+        <v>76</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M30" t="n">
+        <v>686.48</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>640</v>
+      </c>
+      <c r="P30" t="n">
+        <v>265.9794871794873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="C31" t="n">
+        <v>82</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="I31" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J31" t="n">
+        <v>76</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M31" t="n">
+        <v>686.48</v>
+      </c>
+      <c r="N31" t="n">
+        <v>32</v>
+      </c>
+      <c r="O31" t="n">
+        <v>620</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="C32" t="n">
+        <v>82</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="I32" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J32" t="n">
+        <v>76</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M32" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O32" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="P32" t="n">
+        <v>624.2505119047621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="C33" t="n">
+        <v>82</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="I33" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J33" t="n">
+        <v>76</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M33" t="n">
+        <v>656.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O33" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="P33" t="n">
+        <v>574.6695773809524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="C34" t="n">
+        <v>82</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="I34" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J34" t="n">
+        <v>76</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M34" t="n">
+        <v>656.39</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O34" t="n">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20.649999618530273</v>
+      </c>
+      <c r="C35" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="n">
+        <v>17.299999237060547</v>
+      </c>
+      <c r="I35" t="n">
+        <v>993.760009765625</v>
+      </c>
+      <c r="J35" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.2799999713897705</v>
+      </c>
+      <c r="M35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Weather/bin/newFile.xlsx
+++ b/Weather/bin/newFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59" count="6">
   <si>
     <t>Time Stamp</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>2017.06.03 19.35.44</t>
+  </si>
+  <si>
+    <t>2017.06.03 20.14.05</t>
+  </si>
+  <si>
+    <t>2017-06-04T06:00:00</t>
+  </si>
+  <si>
+    <t>2017.06.03 20.15.06</t>
+  </si>
+  <si>
+    <t>2017.06.03 20.16.06</t>
   </si>
   <si>
     <t/>
@@ -514,10 +526,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView showRuler="0" tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
@@ -537,8 +549,8 @@
     <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="24.33203125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
-    <col min="16" max="22" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
-    <col min="23" max="16384" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
+    <col min="16" max="23" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
+    <col min="24" max="16384" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1787,6 +1799,9 @@
       <c r="O25" t="n">
         <v>710</v>
       </c>
+      <c r="P25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
@@ -2234,19 +2249,22 @@
       <c r="O34" t="n">
         <v>46.6</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="P34" t="n">
+        <v>624.2505119047621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>20.649999618530273</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="C35" t="n">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="D35" t="n">
-        <v>1012.0</v>
+        <v>1012</v>
       </c>
       <c r="E35" t="n">
         <v>4.599999904632568</v>
@@ -2258,28 +2276,178 @@
         <v>31</v>
       </c>
       <c r="H35" t="n">
-        <v>17.299999237060547</v>
+        <v>17.29999923706055</v>
       </c>
       <c r="I35" t="n">
         <v>993.760009765625</v>
       </c>
       <c r="J35" t="n">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="M35" t="n">
+        <v>656.39</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O35" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>574.6695773809524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20.3700008392334</v>
+      </c>
+      <c r="C36" t="n">
+        <v>100</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" t="n">
+        <v>12.68000030517578</v>
+      </c>
+      <c r="I36" t="n">
+        <v>994.5700073242188</v>
+      </c>
+      <c r="J36" t="n">
+        <v>92</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="M36" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="N36" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>459</v>
+      </c>
+      <c r="P36" t="n">
+        <v>695.5120679320678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20.3700008392334</v>
+      </c>
+      <c r="C37" t="n">
+        <v>100</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12.68000030517578</v>
+      </c>
+      <c r="I37" t="n">
+        <v>994.5700073242188</v>
+      </c>
+      <c r="J37" t="n">
+        <v>92</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="M37" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="N37" t="n">
+        <v>24</v>
+      </c>
+      <c r="O37" t="n">
+        <v>459</v>
+      </c>
+      <c r="P37" t="n">
+        <v>587.8878928571428</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20.3700008392334</v>
+      </c>
+      <c r="C38" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" t="n">
+        <v>12.680000305175781</v>
+      </c>
+      <c r="I38" t="n">
+        <v>994.5700073242188</v>
+      </c>
+      <c r="J38" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.0</v>
       </c>
-      <c r="L35" t="n">
-        <v>1.2799999713897705</v>
-      </c>
-      <c r="M35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N35" t="s">
-        <v>54</v>
-      </c>
-      <c r="O35" t="s">
-        <v>54</v>
+      <c r="L38" t="n">
+        <v>1.2100000381469727</v>
+      </c>
+      <c r="M38" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" t="s">
+        <v>58</v>
+      </c>
+      <c r="O38" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Weather/bin/newFile.xlsx
+++ b/Weather/bin/newFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64" count="6">
   <si>
     <t>Time Stamp</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Predicted Value</t>
   </si>
   <si>
+    <t>Running Time</t>
+  </si>
+  <si>
     <t>2017.06.01 20.23.09</t>
   </si>
   <si>
@@ -187,6 +190,18 @@
   </si>
   <si>
     <t>2017.06.03 20.16.06</t>
+  </si>
+  <si>
+    <t>2017.06.07 23.49.04</t>
+  </si>
+  <si>
+    <t>2017-06-08T06:00:00</t>
+  </si>
+  <si>
+    <t>2017-06-08T09:00:00</t>
+  </si>
+  <si>
+    <t>2017.06.08 01.19.29</t>
   </si>
   <si>
     <t/>
@@ -526,10 +541,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView showRuler="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
@@ -549,11 +564,11 @@
     <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="24.33203125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
-    <col min="16" max="23" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
-    <col min="24" max="16384" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
+    <col min="16" max="24" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
+    <col min="25" max="16384" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,10 +617,13 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>19.22999954223633</v>
@@ -620,10 +638,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
         <v>12.6899995803833</v>
@@ -653,9 +671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>19.22999954223633</v>
@@ -670,10 +688,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
         <v>12.6899995803833</v>
@@ -703,9 +721,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
         <v>19.22999954223633</v>
@@ -720,10 +738,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
         <v>12.6899995803833</v>
@@ -753,9 +771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
         <v>19.22999954223633</v>
@@ -770,10 +788,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
         <v>12.6899995803833</v>
@@ -803,9 +821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
         <v>19.22999954223633</v>
@@ -820,10 +838,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
         <v>12.6899995803833</v>
@@ -853,9 +871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
         <v>19.22999954223633</v>
@@ -870,10 +888,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
         <v>12.6899995803833</v>
@@ -903,9 +921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="n">
         <v>19.22999954223633</v>
@@ -920,10 +938,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
         <v>12.6899995803833</v>
@@ -953,9 +971,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="n">
         <v>19.22999954223633</v>
@@ -970,10 +988,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
         <v>12.6899995803833</v>
@@ -1003,9 +1021,9 @@
         <v>890</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
         <v>19.22999954223633</v>
@@ -1020,10 +1038,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
         <v>12.6899995803833</v>
@@ -1053,9 +1071,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
         <v>19.22999954223633</v>
@@ -1070,10 +1088,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
         <v>12.6899995803833</v>
@@ -1103,9 +1121,9 @@
         <v>847.4545454545456</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n">
         <v>19.22999954223633</v>
@@ -1120,10 +1138,10 @@
         <v>2.599999904632568</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
         <v>12.6899995803833</v>
@@ -1153,9 +1171,9 @@
         <v>789.279090909091</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
         <v>22.6200008392334</v>
@@ -1170,10 +1188,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" t="n">
         <v>18.59000015258789</v>
@@ -1203,9 +1221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="n">
         <v>22.6200008392334</v>
@@ -1220,10 +1238,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" t="n">
         <v>18.59000015258789</v>
@@ -1253,9 +1271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>22.6200008392334</v>
@@ -1270,10 +1288,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15" t="n">
         <v>18.59000015258789</v>
@@ -1303,9 +1321,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>22.6200008392334</v>
@@ -1320,10 +1338,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" t="n">
         <v>18.59000015258789</v>
@@ -1353,9 +1371,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="n">
         <v>22.6200008392334</v>
@@ -1370,10 +1388,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" t="n">
         <v>18.59000015258789</v>
@@ -1403,9 +1421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="n">
         <v>22.6200008392334</v>
@@ -1420,10 +1438,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" t="n">
         <v>18.59000015258789</v>
@@ -1453,9 +1471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
         <v>22.6200008392334</v>
@@ -1470,10 +1488,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" t="n">
         <v>18.59000015258789</v>
@@ -1503,9 +1521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="n">
         <v>22.6200008392334</v>
@@ -1520,10 +1538,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" t="n">
         <v>18.59000015258789</v>
@@ -1553,9 +1571,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="n">
         <v>22.6200008392334</v>
@@ -1570,10 +1588,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" t="n">
         <v>18.59000015258789</v>
@@ -1603,9 +1621,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="n">
         <v>22.6200008392334</v>
@@ -1620,10 +1638,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" t="n">
         <v>18.59000015258789</v>
@@ -1653,9 +1671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="n">
         <v>22.6200008392334</v>
@@ -1670,10 +1688,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" t="n">
         <v>18.59000015258789</v>
@@ -1703,9 +1721,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="n">
         <v>22.6200008392334</v>
@@ -1720,10 +1738,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24" t="n">
         <v>18.59000015258789</v>
@@ -1753,9 +1771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="n">
         <v>22.6200008392334</v>
@@ -1770,10 +1788,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25" t="n">
         <v>18.59000015258789</v>
@@ -1803,9 +1821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="n">
         <v>22.6200008392334</v>
@@ -1820,10 +1838,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26" t="n">
         <v>18.59000015258789</v>
@@ -1853,9 +1871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="n">
         <v>22.6200008392334</v>
@@ -1870,10 +1888,10 @@
         <v>5.699999809265137</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27" t="n">
         <v>18.59000015258789</v>
@@ -1903,9 +1921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="n">
         <v>21.01000022888184</v>
@@ -1920,10 +1938,10 @@
         <v>4.599999904632568</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28" t="n">
         <v>17.29999923706055</v>
@@ -1953,9 +1971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="n">
         <v>21.01000022888184</v>
@@ -1970,10 +1988,10 @@
         <v>4.599999904632568</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29" t="n">
         <v>17.29999923706055</v>
@@ -2003,9 +2021,9 @@
         <v>415.7765141700405</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="n">
         <v>21.01000022888184</v>
@@ -2020,10 +2038,10 @@
         <v>4.599999904632568</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30" t="n">
         <v>17.29999923706055</v>
@@ -2053,9 +2071,9 @@
         <v>265.9794871794873</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" t="n">
         <v>20.64999961853027</v>
@@ -2070,10 +2088,10 @@
         <v>4.599999904632568</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31" t="n">
         <v>17.29999923706055</v>
@@ -2103,9 +2121,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="n">
         <v>20.64999961853027</v>
@@ -2120,10 +2138,10 @@
         <v>4.599999904632568</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32" t="n">
         <v>17.29999923706055</v>
@@ -2153,9 +2171,9 @@
         <v>624.2505119047621</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="n">
         <v>20.64999961853027</v>
@@ -2170,10 +2188,10 @@
         <v>4.599999904632568</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33" t="n">
         <v>17.29999923706055</v>
@@ -2203,9 +2221,9 @@
         <v>574.6695773809524</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="n">
         <v>20.64999961853027</v>
@@ -2220,10 +2238,10 @@
         <v>4.599999904632568</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34" t="n">
         <v>17.29999923706055</v>
@@ -2253,9 +2271,9 @@
         <v>624.2505119047621</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
         <v>20.64999961853027</v>
@@ -2270,10 +2288,10 @@
         <v>4.599999904632568</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35" t="n">
         <v>17.29999923706055</v>
@@ -2303,9 +2321,9 @@
         <v>574.6695773809524</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
         <v>20.3700008392334</v>
@@ -2320,10 +2338,10 @@
         <v>1.5</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H36" t="n">
         <v>12.68000030517578</v>
@@ -2353,9 +2371,9 @@
         <v>695.5120679320678</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="n">
         <v>20.3700008392334</v>
@@ -2370,10 +2388,10 @@
         <v>1.5</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H37" t="n">
         <v>12.68000030517578</v>
@@ -2403,51 +2421,154 @@
         <v>587.8878928571428</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="n">
         <v>20.3700008392334</v>
       </c>
       <c r="C38" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D38" t="n">
-        <v>1013.0</v>
+        <v>1013</v>
       </c>
       <c r="E38" t="n">
         <v>1.5</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H38" t="n">
-        <v>12.680000305175781</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="I38" t="n">
         <v>994.5700073242188</v>
       </c>
       <c r="J38" t="n">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.2100000381469727</v>
-      </c>
-      <c r="M38" t="s">
-        <v>58</v>
-      </c>
-      <c r="N38" t="s">
-        <v>58</v>
-      </c>
-      <c r="O38" t="s">
-        <v>58</v>
+        <v>1.210000038146973</v>
+      </c>
+      <c r="M38" t="n">
+        <v>168.9</v>
+      </c>
+      <c r="N38" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="O38" t="n">
+        <v>517</v>
+      </c>
+      <c r="P38" t="n">
+        <v>642.1370561497326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="n">
+        <v>17</v>
+      </c>
+      <c r="C39" t="n">
+        <v>82</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.099999904632568</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" t="n">
+        <v>14.77000045776367</v>
+      </c>
+      <c r="I39" t="n">
+        <v>997.6500244140625</v>
+      </c>
+      <c r="J39" t="n">
+        <v>94</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+      <c r="M39" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="N39" t="n">
+        <v>24</v>
+      </c>
+      <c r="O39" t="n">
+        <v>458</v>
+      </c>
+      <c r="P39" t="n">
+        <v>782.1946466768526</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>26.51946466768526</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16.639999389648438</v>
+      </c>
+      <c r="C40" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" t="n">
+        <v>14.479999542236328</v>
+      </c>
+      <c r="I40" t="n">
+        <v>997.6500244140625</v>
+      </c>
+      <c r="J40" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+      <c r="M40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" t="s">
+        <v>63</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
